--- a/Al Sweigart/merged.xlsx
+++ b/Al Sweigart/merged.xlsx
@@ -375,10 +375,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="C5:E5"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>